--- a/Power_Distribution_Board/Fabrication/Power Board BOM.xlsx
+++ b/Power_Distribution_Board/Fabrication/Power Board BOM.xlsx
@@ -1,27 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4eef2748f1d2eff5/Documents/GitHub/electrical/Power_Distribution_Board/Fabrication/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_21ECDD462A1031BC70993B950DA7B6A9960C6D74" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{518AD1E5-6BA7-4DEB-AF6E-1183A66286A3}"/>
+  <bookViews>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Power Board" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Lumenier Carrier Board" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="REV B Order List" sheetId="3" r:id="rId6"/>
+    <sheet name="Power Board" sheetId="1" r:id="rId1"/>
+    <sheet name="Lumenier Carrier Board" sheetId="2" r:id="rId2"/>
+    <sheet name="REV B Order List" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment authorId="0" ref="H25">
+    <comment ref="H25" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
-        <t xml:space="preserve">We have changed to using the 900W verson so we do not have to worry about voltage drop. https://www.digikey.com/en/products/detail/flex-power-modules/BMR4800102-002/10287640
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <scheme val="minor"/>
+          </rPr>
+          <t>We have changed to using the 900W verson so we do not have to worry about voltage drop. https://www.digikey.com/en/products/detail/flex-power-modules/BMR4800102-002/10287640
 	-isaac wax</t>
+        </r>
       </text>
     </comment>
   </commentList>
@@ -29,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="108">
   <si>
     <t>Ref</t>
   </si>
@@ -347,70 +364,78 @@
   </si>
   <si>
     <t>Low Temp Soalder</t>
+  </si>
+  <si>
+    <t>Zener diode</t>
+  </si>
+  <si>
+    <t>R3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy h:mm:ss am/pm"/>
+    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss\ AM/PM"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <strike/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <strike/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
@@ -420,7 +445,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -447,28 +472,40 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
-    <border/>
+  <borders count="5">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FFA9D08E"/>
       </left>
+      <right/>
       <top style="thin">
         <color rgb="FFA9D08E"/>
       </top>
       <bottom style="thin">
         <color rgb="FFA9D08E"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FFA9D08E"/>
       </top>
       <bottom style="thin">
         <color rgb="FFA9D08E"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color rgb="FFA9D08E"/>
       </right>
@@ -478,139 +515,71 @@
       <bottom style="thin">
         <color rgb="FFA9D08E"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFA9D08E"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="2" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="3" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
+  <cellXfs count="30">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -800,29 +769,34 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="28.63"/>
-    <col customWidth="1" min="2" max="2" width="21.75"/>
-    <col customWidth="1" min="3" max="3" width="34.13"/>
-    <col customWidth="1" min="4" max="4" width="27.63"/>
-    <col customWidth="1" min="5" max="5" width="61.75"/>
-    <col customWidth="1" min="6" max="6" width="34.13"/>
-    <col customWidth="1" min="7" max="11" width="42.38"/>
+    <col min="1" max="1" width="28.609375" customWidth="1"/>
+    <col min="2" max="2" width="21.71875" customWidth="1"/>
+    <col min="3" max="3" width="34.109375" customWidth="1"/>
+    <col min="4" max="4" width="27.609375" customWidth="1"/>
+    <col min="5" max="5" width="61.71875" customWidth="1"/>
+    <col min="6" max="6" width="34.109375" customWidth="1"/>
+    <col min="7" max="11" width="42.38671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:11" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -857,119 +831,119 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" hidden="1">
+    <row r="2" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" hidden="1">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-    </row>
-    <row r="4" hidden="1">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="14">
-        <v>45176.81277777778</v>
-      </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="9"/>
-    </row>
-    <row r="5" hidden="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-    </row>
-    <row r="6" hidden="1">
+      <c r="B4" s="13">
+        <v>45176.812777777777</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="8"/>
+      <c r="K4" s="8"/>
+    </row>
+    <row r="5" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+    </row>
+    <row r="6" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-    </row>
-    <row r="7" hidden="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-    </row>
-    <row r="8" hidden="1">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8"/>
+      <c r="K6" s="8"/>
+    </row>
+    <row r="7" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="9"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+    </row>
+    <row r="8" spans="1:11" ht="14.4" hidden="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-    </row>
-    <row r="9">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+    </row>
+    <row r="9" spans="1:11" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>19</v>
@@ -983,45 +957,45 @@
       <c r="F9" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="8">
         <v>2.5</v>
       </c>
-      <c r="J9" s="17">
-        <f t="shared" ref="J9:J14" si="1">I9*B9</f>
+      <c r="J9" s="8">
+        <f t="shared" ref="J9:J14" si="0">I9*B9</f>
         <v>12.5</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K10" s="13"/>
-    </row>
-    <row r="11">
+    <row r="10" spans="1:11" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="12"/>
+    </row>
+    <row r="11" spans="1:11" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="6">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>27</v>
@@ -1035,45 +1009,45 @@
       <c r="F11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="8">
         <v>2.5</v>
       </c>
-      <c r="J11" s="17">
-        <f t="shared" si="1"/>
+      <c r="J11" s="8">
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="8" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K12" s="13"/>
-    </row>
-    <row r="13">
+    <row r="12" spans="1:11" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K12" s="12"/>
+    </row>
+    <row r="13" spans="1:11" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="5" t="s">
         <v>30</v>
       </c>
       <c r="B13" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>31</v>
@@ -1087,43 +1061,43 @@
       <c r="F13" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="H13" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="8">
         <v>1.73</v>
       </c>
-      <c r="J13" s="17">
-        <f t="shared" si="1"/>
+      <c r="J13" s="8">
+        <f t="shared" si="0"/>
         <v>3.46</v>
       </c>
-      <c r="K13" s="17"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="K14" s="13"/>
-    </row>
-    <row r="15">
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:11" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K14" s="12"/>
+    </row>
+    <row r="15" spans="1:11" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B15" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>36</v>
@@ -1137,42 +1111,42 @@
       <c r="F15" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="16" t="s">
+      <c r="H15" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17">
+      <c r="I15" s="8"/>
+      <c r="J15" s="8">
         <v>10.99</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="K15" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="17">
+    <row r="16" spans="1:11" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="8">
         <f>I16*B16</f>
         <v>0</v>
       </c>
-      <c r="K16" s="13"/>
-    </row>
-    <row r="17">
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="1:11" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5" t="s">
         <v>42</v>
       </c>
       <c r="B17" s="6">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>36</v>
@@ -1186,44 +1160,44 @@
       <c r="F17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H17" s="16" t="s">
+      <c r="H17" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="8">
         <v>9.59</v>
       </c>
-      <c r="J17" s="17">
+      <c r="J17" s="8">
         <v>9.59</v>
       </c>
-      <c r="K17" s="17" t="s">
+      <c r="K17" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="17">
-        <f t="shared" ref="J18:J24" si="2">I18*B18</f>
-        <v>0</v>
-      </c>
-      <c r="K18" s="13"/>
-    </row>
-    <row r="19">
+    <row r="18" spans="1:11" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="8">
+        <f t="shared" ref="J18:J24" si="1">I18*B18</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="1:11" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="5" t="s">
         <v>46</v>
       </c>
       <c r="B19" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>47</v>
@@ -1237,43 +1211,43 @@
       <c r="F19" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="H19" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="8">
         <v>0.39</v>
       </c>
-      <c r="J19" s="17">
-        <f t="shared" si="2"/>
+      <c r="J19" s="8">
+        <f t="shared" si="1"/>
         <v>0.39</v>
       </c>
-      <c r="K19" s="17"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K20" s="13"/>
-    </row>
-    <row r="21">
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="1:11" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K20" s="12"/>
+    </row>
+    <row r="21" spans="1:11" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="5" t="s">
         <v>51</v>
       </c>
       <c r="B21" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>36</v>
@@ -1287,43 +1261,43 @@
       <c r="F21" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="H21" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="8">
         <v>0.78</v>
       </c>
-      <c r="J21" s="17">
-        <f t="shared" si="2"/>
+      <c r="J21" s="8">
+        <f t="shared" si="1"/>
         <v>1.56</v>
       </c>
-      <c r="K21" s="17"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K22" s="13"/>
-    </row>
-    <row r="23">
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="1:11" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K22" s="12"/>
+    </row>
+    <row r="23" spans="1:11" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B23" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>55</v>
@@ -1337,41 +1311,41 @@
       <c r="F23" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H23" s="17" t="s">
+      <c r="H23" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K23" s="17"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="13"/>
-      <c r="I24" s="13"/>
-      <c r="J24" s="17">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K24" s="13"/>
-    </row>
-    <row r="25">
+      <c r="I23" s="8"/>
+      <c r="J23" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K23" s="8"/>
+    </row>
+    <row r="24" spans="1:11" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="12"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K24" s="12"/>
+    </row>
+    <row r="25" spans="1:11" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B25" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>60</v>
@@ -1382,45 +1356,45 @@
       <c r="E25" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="15" t="s">
+      <c r="F25" s="6"/>
+      <c r="G25" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="16" t="s">
+      <c r="H25" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="8">
         <v>152.94</v>
       </c>
-      <c r="J25" s="17">
+      <c r="J25" s="8">
         <v>129.07</v>
       </c>
-      <c r="K25" s="17" t="s">
+      <c r="K25" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="17">
-        <f t="shared" ref="J26:J27" si="3">I26*B26</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="13"/>
-    </row>
-    <row r="27">
+    <row r="26" spans="1:11" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="12"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="8">
+        <f t="shared" ref="J26:J27" si="2">I26*B26</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="12"/>
+    </row>
+    <row r="27" spans="1:11" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="5" t="s">
         <v>63</v>
       </c>
       <c r="B27" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>64</v>
@@ -1431,218 +1405,226 @@
       <c r="E27" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="15" t="s">
+      <c r="F27" s="6"/>
+      <c r="G27" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="H27" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="8">
         <v>56.46</v>
       </c>
-      <c r="J27" s="17">
-        <f t="shared" si="3"/>
+      <c r="J27" s="8">
+        <f t="shared" si="2"/>
         <v>56.46</v>
       </c>
-      <c r="K27" s="17"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="12"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="18">
+      <c r="K27" s="8"/>
+    </row>
+    <row r="28" spans="1:11" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="15">
         <f>SUM(J2:J27)</f>
         <v>236.52</v>
       </c>
-      <c r="K28" s="13"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="19" t="s">
+      <c r="K28" s="12"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A32" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C32" s="16" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="19" t="s">
+    <row r="33" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A33" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C33" s="16" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="19" t="s">
+    <row r="34" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A34" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="16" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="19" t="s">
+    <row r="35" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A35" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="19" t="s">
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+    </row>
+    <row r="36" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A36" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="21" t="s">
+      <c r="B36" s="16"/>
+      <c r="C36" s="16"/>
+    </row>
+    <row r="37" spans="1:3" ht="12.3" x14ac:dyDescent="0.4">
+      <c r="A37" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="21">
+      <c r="B37" s="17">
         <v>53.65</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="17" t="s">
         <v>79</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId2" ref="H9"/>
-    <hyperlink r:id="rId3" ref="H11"/>
-    <hyperlink r:id="rId4" ref="H13"/>
-    <hyperlink r:id="rId5" ref="H15"/>
-    <hyperlink r:id="rId6" ref="H17"/>
-    <hyperlink r:id="rId7" ref="H19"/>
-    <hyperlink r:id="rId8" ref="H21"/>
-    <hyperlink r:id="rId9" ref="H25"/>
-    <hyperlink r:id="rId10" ref="H27"/>
+    <hyperlink ref="H9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="H11" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="H13" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="H15" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="H17" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="H19" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="H21" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="H25" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="H27" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
   </hyperlinks>
-  <drawing r:id="rId11"/>
-  <legacyDrawing r:id="rId12"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId10"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.13"/>
+    <col min="1" max="1" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="23" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="21" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="12"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="26" t="s">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="11"/>
+    </row>
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B3" s="27">
-        <v>2.0</v>
-      </c>
-      <c r="C3" s="27" t="s">
+      <c r="B3" s="23">
+        <v>2</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E3" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-    </row>
-    <row r="5">
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="5" t="s">
         <v>84</v>
       </c>
       <c r="B5" s="6">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>85</v>
@@ -1656,41 +1638,41 @@
       <c r="F5" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="H5" s="25" t="s">
         <v>88</v>
       </c>
-      <c r="I5" s="15">
+      <c r="I5" s="7">
         <v>8.98</v>
       </c>
-      <c r="J5" s="15">
-        <v>29.0</v>
-      </c>
-      <c r="K5" s="15" t="s">
+      <c r="J5" s="7">
+        <v>29</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-    </row>
-    <row r="7">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="5" t="s">
         <v>90</v>
       </c>
       <c r="B7" s="6">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>36</v>
@@ -1704,35 +1686,35 @@
       <c r="F7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-    </row>
-    <row r="9">
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B9" s="6">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>93</v>
@@ -1743,77 +1725,78 @@
       <c r="E9" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="15" t="s">
+      <c r="F9" s="6"/>
+      <c r="G9" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="H9" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="I9" s="15">
+      <c r="I9" s="7">
         <v>59.99</v>
       </c>
-      <c r="J9" s="15">
+      <c r="J9" s="7">
         <v>69.8</v>
       </c>
-      <c r="K9" s="15" t="s">
+      <c r="K9" s="7" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="10">
-      <c r="J10" s="30">
-        <f>sum(J2:J9)</f>
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J10" s="17">
+        <f>SUM(J2:J9)</f>
         <v>98.8</v>
       </c>
     </row>
-    <row r="11">
-      <c r="J11" s="31" t="s">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J11" s="26" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="12">
-      <c r="J12" s="32">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="J12" s="26">
         <f>J10+C15</f>
-        <v>107.0833333</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="21" t="s">
+        <v>107.08333333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="17" t="s">
         <v>100</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="17">
         <v>24.85</v>
       </c>
     </row>
-    <row r="15">
-      <c r="C15" s="32">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="C15" s="26">
         <f>24.85/3</f>
-        <v>8.283333333</v>
+        <v>8.2833333333333332</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="H5"/>
-    <hyperlink r:id="rId2" ref="H9"/>
+    <hyperlink ref="H5" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="H9" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
-  <drawing r:id="rId3"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.609375" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -1836,364 +1819,364 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="D2" s="17">
+      <c r="D2" s="8">
         <v>135.46</v>
       </c>
-      <c r="E2" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="F2" s="9">
-        <f t="shared" ref="F2:F25" si="1">D:D*E:E</f>
+      <c r="E2" s="8">
+        <v>3</v>
+      </c>
+      <c r="F2" s="8">
+        <f t="shared" ref="F2:F25" si="0">D:D*E:E</f>
         <v>406.38</v>
       </c>
-      <c r="G2" s="9"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="33" t="s">
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="12">
         <v>56.46</v>
       </c>
-      <c r="E3" s="35">
-        <v>2.0</v>
-      </c>
-      <c r="F3" s="9">
-        <f t="shared" si="1"/>
+      <c r="E3" s="12">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8">
+        <f t="shared" si="0"/>
         <v>112.92</v>
       </c>
-      <c r="G3" s="13"/>
-    </row>
-    <row r="4">
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="8">
         <v>59.99</v>
       </c>
-      <c r="E4" s="17">
-        <v>3.0</v>
-      </c>
-      <c r="F4" s="9">
-        <f t="shared" si="1"/>
+      <c r="E4" s="8">
+        <v>3</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" si="0"/>
         <v>179.97</v>
       </c>
-      <c r="G4" s="9"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="33" t="s">
+      <c r="G4" s="8"/>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G5" s="13"/>
-    </row>
-    <row r="6">
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="12"/>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="9"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="11"/>
-      <c r="B7" s="12"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G8" s="9"/>
-    </row>
-    <row r="9">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="6"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="36"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="11"/>
-      <c r="B10" s="12"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13"/>
-      <c r="F10" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G10" s="13"/>
-    </row>
-    <row r="11">
+      <c r="B9" s="7"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="12"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="11"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G12" s="13"/>
-    </row>
-    <row r="13">
+      <c r="B11" s="7"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="8"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="12"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="36"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15">
+      <c r="B13" s="7"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="8"/>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="12"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="6"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G15" s="17"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="11"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G16" s="13"/>
-    </row>
-    <row r="17">
+      <c r="B15" s="7"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="12"/>
+    </row>
+    <row r="17" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="6"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
-      <c r="F17" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="11"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19">
+      <c r="B17" s="7"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G18" s="12"/>
+    </row>
+    <row r="19" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="36"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="11"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G20" s="13"/>
-    </row>
-    <row r="21">
+      <c r="B19" s="7"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G20" s="12"/>
+    </row>
+    <row r="21" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="36"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="11"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="13"/>
-    </row>
-    <row r="23">
+      <c r="B21" s="7"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+      <c r="F21" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="12"/>
+    </row>
+    <row r="23" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="6"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G23" s="17"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
-      <c r="E24" s="13"/>
-      <c r="F24" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G24" s="13"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="17"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G25" s="17"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="11"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="13"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="7"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="18">
+      <c r="B23" s="7"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="10"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="12"/>
+    </row>
+    <row r="25" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="8"/>
+    </row>
+    <row r="26" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="12"/>
+    </row>
+    <row r="27" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" ht="14.4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="15">
         <f>SUM(F2:F27)</f>
         <v>699.27</v>
       </c>
-      <c r="G28" s="13"/>
+      <c r="G28" s="12"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="C2"/>
-    <hyperlink r:id="rId2" ref="C3"/>
-    <hyperlink r:id="rId3" ref="C4"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
   </hyperlinks>
-  <drawing r:id="rId4"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>